--- a/data/Samantha BarrónT3-2024.xlsx
+++ b/data/Samantha BarrónT3-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -557,8 +561,6 @@
       <c r="F11" s="11" t="n">
         <v>73.89000172999999</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
@@ -647,7 +649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +662,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -667,6 +671,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -674,6 +679,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -952,6 +958,7 @@
         <v>0.00271939</v>
       </c>
     </row>
+    <row r="29"/>
     <row r="30">
       <c r="C30" s="6" t="inlineStr">
         <is>
@@ -977,7 +984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,6 +997,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -997,6 +1006,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1004,6 +1014,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1126,6 +1137,7 @@
         <v>0.00042835</v>
       </c>
     </row>
+    <row r="17"/>
     <row r="18">
       <c r="C18" s="6" t="inlineStr">
         <is>
